--- a/RoboticEnterpriseFramework/Data/Config.xlsx
+++ b/RoboticEnterpriseFramework/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxf38842\Downloads\RoboticEnterpriseFramework\RoboticEnterpriseFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WA\QD\ComputerVisionUsingUIPath\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4798E5EF-497D-4140-818F-CBF86F0EA5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780838D-1A09-4541-873D-9219A11431E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,17 @@
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,9 +146,6 @@
     <t>123@Augs</t>
   </si>
   <si>
-    <t>Remote Machine unlicking Passwod</t>
-  </si>
-  <si>
     <t>Equation</t>
   </si>
   <si>
@@ -169,7 +176,10 @@
     <t>User  Input</t>
   </si>
   <si>
-    <t>CV_Calculator,CV_NotePad,CV_WebScraping</t>
+    <t>Remote Machine unlocking Passwod</t>
+  </si>
+  <si>
+    <t>CV_Calculator,CV_India,CV_NotePad,CV_WebScraping,CV_Unknown</t>
   </si>
 </sst>
 </file>
@@ -573,13 +583,13 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -659,49 +669,49 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1731,7 +1741,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1781,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
